--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Questions" sheetId="1" r:id="rId1"/>
+    <sheet name="Riddles" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
-  <si>
-    <t>Prüfung der Erhabenen - Fragen + Rätsel</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="38">
   <si>
     <t>Kategorien</t>
   </si>
@@ -120,13 +118,34 @@
   </si>
   <si>
     <t>… Bewegung, körperliches Training und Kraftaufwand</t>
+  </si>
+  <si>
+    <t>Prüfung der Erhabenen - Fragen (Begin)</t>
+  </si>
+  <si>
+    <t>Normale Rätsel</t>
+  </si>
+  <si>
+    <t>A:</t>
+  </si>
+  <si>
+    <t>B:</t>
+  </si>
+  <si>
+    <t>C:</t>
+  </si>
+  <si>
+    <t>D:</t>
+  </si>
+  <si>
+    <t>Boss-Rätsel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +169,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -159,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -209,22 +242,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -234,6 +341,54 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -514,184 +669,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="5" width="21.42578125" customWidth="1"/>
+    <col min="9" max="20" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="G1" s="2" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:H2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B12:E12"/>
@@ -699,4 +848,1357 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27:N28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="14" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+    </row>
+    <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+    </row>
+    <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="N30" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M31" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="N31" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N32" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+    </row>
+    <row r="34" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C35" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N35" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C36" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="N36" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C37" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M37" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="N37" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N38" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="99">
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="104">
   <si>
     <t>Kategorien</t>
   </si>
@@ -259,13 +259,91 @@
   </si>
   <si>
     <t>q</t>
+  </si>
+  <si>
+    <t>2x H, 1x O</t>
+  </si>
+  <si>
+    <t>2x O, 1x H</t>
+  </si>
+  <si>
+    <t>1x C, 2x O</t>
+  </si>
+  <si>
+    <t>3x O, 2x H</t>
+  </si>
+  <si>
+    <t>Probe 678: Substanz: Wasser. Atomanzahl der Elemente im Molekül angeben.</t>
+  </si>
+  <si>
+    <t>Probe 412: Substanz: Schwefelsäure. Anzahl Dissoziationsstufen angeben.</t>
+  </si>
+  <si>
+    <t>1 = 3, 2 = 4</t>
+  </si>
+  <si>
+    <t>Probe 220: Begriff 1: LEWIS-Säure, Begriff 2: Nucleophil, Begriff 3: Elektrophil, Begriff 4: LEWIS-Base. Verknüpfungen herstellen.</t>
+  </si>
+  <si>
+    <t>1 = 2, 3 = 4</t>
+  </si>
+  <si>
+    <t>2 = 3, 1 = 4</t>
+  </si>
+  <si>
+    <t>1 = 2 = 3 = 4</t>
+  </si>
+  <si>
+    <t>Probe 299: Gesucht: Viertes Homologes Glied der Alkane.</t>
+  </si>
+  <si>
+    <t>Butan</t>
+  </si>
+  <si>
+    <t>Hexan</t>
+  </si>
+  <si>
+    <t>Propan</t>
+  </si>
+  <si>
+    <t>Tetran</t>
+  </si>
+  <si>
+    <t>Hückel-Regel</t>
+  </si>
+  <si>
+    <t>Jahn-Teller-Regel</t>
+  </si>
+  <si>
+    <t>Probe 014: Prüfung eines Stoffes auf Aromatizität. Name der relevanten Regel angeben.</t>
+  </si>
+  <si>
+    <t>Kepler-Fassregel</t>
+  </si>
+  <si>
+    <t>Regel von Markovnikov</t>
+  </si>
+  <si>
+    <t>Probe 894: Vergleich chemischer Polymere. Allgemeine Ordnung nach Siedetemperatur. Höchste SDT gesucht.</t>
+  </si>
+  <si>
+    <t>Duroplast</t>
+  </si>
+  <si>
+    <t>Thermoplast</t>
+  </si>
+  <si>
+    <t>Elastomer</t>
+  </si>
+  <si>
+    <t>Alle 3 gleich</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +377,12 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -461,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -507,6 +591,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -549,16 +645,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -854,31 +947,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -921,12 +1014,12 @@
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -969,12 +1062,12 @@
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1026,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,100 +1129,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="28"/>
     </row>
     <row r="4" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C5" s="17" t="s">
@@ -1144,7 +1239,7 @@
       <c r="F5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="21" t="s">
         <v>48</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -1162,8 +1257,8 @@
       <c r="L5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>33</v>
+      <c r="M5" s="37" t="s">
+        <v>81</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>33</v>
@@ -1182,7 +1277,7 @@
       <c r="F6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="19" t="s">
         <v>49</v>
       </c>
       <c r="H6" s="11" t="s">
@@ -1200,8 +1295,8 @@
       <c r="L6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>34</v>
+      <c r="M6" s="38" t="s">
+        <v>79</v>
       </c>
       <c r="N6" s="11" t="s">
         <v>34</v>
@@ -1220,7 +1315,7 @@
       <c r="F7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="19" t="s">
         <v>50</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -1238,8 +1333,8 @@
       <c r="L7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>35</v>
+      <c r="M7" s="38" t="s">
+        <v>80</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>35</v>
@@ -1258,7 +1353,7 @@
       <c r="F8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="20" t="s">
         <v>51</v>
       </c>
       <c r="H8" s="13" t="s">
@@ -1276,44 +1371,46 @@
       <c r="L8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="13" t="s">
-        <v>36</v>
+      <c r="M8" s="39" t="s">
+        <v>78</v>
       </c>
       <c r="N8" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" s="18">
@@ -1346,8 +1443,8 @@
       <c r="L11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="8" t="s">
-        <v>33</v>
+      <c r="M11" s="17">
+        <v>1</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>33</v>
@@ -1384,8 +1481,8 @@
       <c r="L12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="10" t="s">
-        <v>34</v>
+      <c r="M12" s="14">
+        <v>4</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>34</v>
@@ -1422,8 +1519,8 @@
       <c r="L13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M13" s="10" t="s">
-        <v>35</v>
+      <c r="M13" s="14">
+        <v>3</v>
       </c>
       <c r="N13" s="10" t="s">
         <v>35</v>
@@ -1460,44 +1557,46 @@
       <c r="L14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M14" s="12" t="s">
-        <v>36</v>
+      <c r="M14" s="22">
+        <v>2</v>
       </c>
       <c r="N14" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" s="31"/>
     </row>
     <row r="16" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C17" s="17">
@@ -1530,8 +1629,8 @@
       <c r="L17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="8" t="s">
-        <v>33</v>
+      <c r="M17" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="N17" s="8" t="s">
         <v>33</v>
@@ -1568,8 +1667,8 @@
       <c r="L18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M18" s="10" t="s">
-        <v>34</v>
+      <c r="M18" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>34</v>
@@ -1606,8 +1705,8 @@
       <c r="L19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M19" s="10" t="s">
-        <v>35</v>
+      <c r="M19" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="N19" s="10" t="s">
         <v>35</v>
@@ -1644,50 +1743,52 @@
       <c r="L20" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="12" t="s">
-        <v>36</v>
+      <c r="M20" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="36"/>
+      <c r="C21" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27" t="s">
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="N21" s="31"/>
     </row>
     <row r="22" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C23" s="17">
@@ -1702,7 +1803,7 @@
       <c r="F23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="21" t="s">
         <v>72</v>
       </c>
       <c r="H23" s="9" t="s">
@@ -1720,8 +1821,8 @@
       <c r="L23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="9" t="s">
-        <v>33</v>
+      <c r="M23" s="21" t="s">
+        <v>100</v>
       </c>
       <c r="N23" s="9" t="s">
         <v>33</v>
@@ -1740,7 +1841,7 @@
       <c r="F24" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="19" t="s">
         <v>69</v>
       </c>
       <c r="H24" s="11" t="s">
@@ -1758,8 +1859,8 @@
       <c r="L24" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M24" s="11" t="s">
-        <v>34</v>
+      <c r="M24" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>34</v>
@@ -1778,7 +1879,7 @@
       <c r="F25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="19" t="s">
         <v>70</v>
       </c>
       <c r="H25" s="11" t="s">
@@ -1796,8 +1897,8 @@
       <c r="L25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="11" t="s">
-        <v>35</v>
+      <c r="M25" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="N25" s="11" t="s">
         <v>35</v>
@@ -1816,7 +1917,7 @@
       <c r="F26" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="20" t="s">
         <v>71</v>
       </c>
       <c r="H26" s="13" t="s">
@@ -1834,44 +1935,46 @@
       <c r="L26" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="13" t="s">
-        <v>36</v>
+      <c r="M26" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="N26" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27" t="s">
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="N27" s="31"/>
     </row>
     <row r="28" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C29" s="18">
@@ -1904,8 +2007,8 @@
       <c r="L29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M29" s="8" t="s">
-        <v>33</v>
+      <c r="M29" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="N29" s="8" t="s">
         <v>33</v>
@@ -1942,8 +2045,8 @@
       <c r="L30" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M30" s="10" t="s">
-        <v>34</v>
+      <c r="M30" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>34</v>
@@ -1980,8 +2083,8 @@
       <c r="L31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M31" s="10" t="s">
-        <v>35</v>
+      <c r="M31" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="N31" s="10" t="s">
         <v>35</v>
@@ -2000,7 +2103,7 @@
       <c r="F32" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="36" t="s">
+      <c r="G32" s="22" t="s">
         <v>58</v>
       </c>
       <c r="H32" s="12" t="s">
@@ -2018,44 +2121,46 @@
       <c r="L32" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M32" s="12" t="s">
-        <v>36</v>
+      <c r="M32" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="N32" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27" t="s">
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="N33" s="31"/>
     </row>
     <row r="34" spans="3:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C35" s="17">
@@ -2088,8 +2193,8 @@
       <c r="L35" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M35" s="8" t="s">
-        <v>33</v>
+      <c r="M35" s="17" t="s">
+        <v>95</v>
       </c>
       <c r="N35" s="8" t="s">
         <v>33</v>
@@ -2126,8 +2231,8 @@
       <c r="L36" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M36" s="10" t="s">
-        <v>34</v>
+      <c r="M36" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="N36" s="10" t="s">
         <v>34</v>
@@ -2164,8 +2269,8 @@
       <c r="L37" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M37" s="10" t="s">
-        <v>35</v>
+      <c r="M37" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="N37" s="10" t="s">
         <v>35</v>
@@ -2202,40 +2307,40 @@
       <c r="L38" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M38" s="10" t="s">
-        <v>36</v>
+      <c r="M38" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="N38" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C41" s="7"/>
@@ -2319,6 +2424,7 @@
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="I39:I40"/>
+    <mergeCell ref="H21:H22"/>
     <mergeCell ref="N33:N34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="I33:I34"/>
@@ -2326,8 +2432,11 @@
     <mergeCell ref="K33:K34"/>
     <mergeCell ref="L33:L34"/>
     <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="N27:N28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
@@ -2335,19 +2444,11 @@
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="H27:H28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="N15:N16"/>
     <mergeCell ref="C15:C16"/>
@@ -2356,6 +2457,10 @@
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="207">
   <si>
     <t>Kategorien</t>
   </si>
@@ -333,18 +333,6 @@
     <t>Probe 858:</t>
   </si>
   <si>
-    <t>Probe 652:</t>
-  </si>
-  <si>
-    <t>Probe 407:</t>
-  </si>
-  <si>
-    <t>Probe 825:</t>
-  </si>
-  <si>
-    <t>Probe 885:</t>
-  </si>
-  <si>
     <t>Maximalkraft</t>
   </si>
   <si>
@@ -468,24 +456,6 @@
     <t>Probe 065:</t>
   </si>
   <si>
-    <t>Probe 150:</t>
-  </si>
-  <si>
-    <t>Probe 369:</t>
-  </si>
-  <si>
-    <t>Probe 290:</t>
-  </si>
-  <si>
-    <t>Probe 106:</t>
-  </si>
-  <si>
-    <t>Probe 203:</t>
-  </si>
-  <si>
-    <t>Probe 687: Verteilte Gleichnisse in den Evangelien. Evangelium ohne Gleichnisse angeben.</t>
-  </si>
-  <si>
     <t>Johannes</t>
   </si>
   <si>
@@ -565,6 +535,117 @@
   </si>
   <si>
     <t>Leopold</t>
+  </si>
+  <si>
+    <t>Probe 652: Fußball-Datenbanken verglichen. Weltmeister 2010 gesucht.</t>
+  </si>
+  <si>
+    <t>Spanien</t>
+  </si>
+  <si>
+    <t>Deutschland</t>
+  </si>
+  <si>
+    <t>Niederlande</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>NBA</t>
+  </si>
+  <si>
+    <t>MLB</t>
+  </si>
+  <si>
+    <t>Probe 407: Profisport-Organisationen in Listen zusammengetragen. Fehlerhaften Eintrag identifizieren.</t>
+  </si>
+  <si>
+    <t>Probe 825: Kartensuche erfolglos. FIFA-Hauptsitz konnte nicht lokalisiert werden. Lokalisiere FIFA-Hauptsitz.</t>
+  </si>
+  <si>
+    <t>Zürich</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>NFL</t>
+  </si>
+  <si>
+    <t>MLT</t>
+  </si>
+  <si>
+    <t>Probe 885: Zeitplaner durcheinander. Super-Bowl-Termin üblich in welchem Quartal?</t>
+  </si>
+  <si>
+    <t>1. Quartal</t>
+  </si>
+  <si>
+    <t>2. Quartal</t>
+  </si>
+  <si>
+    <t>4. Quartal</t>
+  </si>
+  <si>
+    <t>3. Quartal</t>
+  </si>
+  <si>
+    <t>Probe 150: Parteienliste aktualisiert. Partei identifizieren, die in keinem Parlament Deutschlands vertreten ist.</t>
+  </si>
+  <si>
+    <t>NPD</t>
+  </si>
+  <si>
+    <t>ALFA</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>DKP</t>
+  </si>
+  <si>
+    <t>Probe 106: Datenspeicher defekt. Datum der nächsten Bundestagswahl angeben.</t>
+  </si>
+  <si>
+    <t>Probe 369: Schaubild vervollständigen. Nicht existierendes Organ des politischen Systems Deutschlands angeben.</t>
+  </si>
+  <si>
+    <t>Landesverfassungsgericht</t>
+  </si>
+  <si>
+    <t>Bundesrat</t>
+  </si>
+  <si>
+    <t>Bundessenat</t>
+  </si>
+  <si>
+    <t>Bundeskabinett</t>
+  </si>
+  <si>
+    <t>Probe 290: Politikforschung abgeschlossen. Anzahl aller bisherigen deutschen Bundespräsidenten angeben.</t>
+  </si>
+  <si>
+    <t>Probe 687: Untersuche Gleichnisse in den Evangelien. Evangelium ohne Gleichnisse angeben.</t>
+  </si>
+  <si>
+    <t>Probe 203: Listen des BIP verglichen. Land mit vergleichsweise höchstem BIP gefunden.</t>
+  </si>
+  <si>
+    <t>Russland</t>
+  </si>
+  <si>
+    <t>Frankreich</t>
+  </si>
+  <si>
+    <t>Japan</t>
   </si>
 </sst>
 </file>
@@ -636,7 +717,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -769,11 +850,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -837,37 +982,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1335,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,127 +1517,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="27" t="s">
+      <c r="D3" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="M3" s="27" t="s">
+      <c r="H3" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M3" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="30" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="31"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="11" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E5" s="12">
         <v>1914</v>
@@ -1483,15 +1657,17 @@
         <v>77</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="21" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E6" s="8">
         <v>1939</v>
@@ -1509,15 +1685,17 @@
         <v>75</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E7" s="8">
         <v>1789</v>
@@ -1535,15 +1713,17 @@
         <v>76</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E8" s="10">
         <v>1871</v>
@@ -1561,68 +1741,76 @@
         <v>74</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="30" t="s">
+      <c r="D9" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="M9" s="30" t="s">
+      <c r="H9" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="N9" s="30" t="s">
-        <v>110</v>
+      <c r="N9" s="27" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="12">
+      <c r="A11" s="7"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="15">
         <v>54</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="20">
+        <v>2016</v>
+      </c>
       <c r="E11" s="11" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="11" t="s">
@@ -1637,16 +1825,20 @@
         <v>1</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="8">
+      <c r="A12" s="7"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="13">
         <v>52</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="13">
+        <v>2019</v>
+      </c>
       <c r="E12" s="8" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="8" t="s">
@@ -1661,16 +1853,20 @@
         <v>4</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="8">
+      <c r="A13" s="7"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="13">
         <v>60</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="21">
+        <v>2017</v>
+      </c>
       <c r="E13" s="8" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="9" t="s">
@@ -1685,16 +1881,20 @@
         <v>3</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C14" s="10">
+      <c r="A14" s="7"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="14">
         <v>56</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="14">
+        <v>2020</v>
+      </c>
       <c r="E14" s="16" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="10" t="s">
@@ -1709,66 +1909,74 @@
         <v>2</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" s="30" t="s">
+      <c r="D15" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="K15" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="L15" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="M15" s="30" t="s">
+      <c r="H15" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="M15" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="N15" s="30" t="s">
-        <v>102</v>
+      <c r="N15" s="27" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C17" s="11">
+      <c r="A17" s="7"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="20">
         <v>15</v>
       </c>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>197</v>
+      </c>
       <c r="E17" s="12">
         <v>800</v>
       </c>
@@ -1784,13 +1992,19 @@
       <c r="M17" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="N17" s="12"/>
+      <c r="N17" s="12" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C18" s="8">
+      <c r="A18" s="7"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="13">
         <v>22</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>198</v>
+      </c>
       <c r="E18" s="8">
         <v>912</v>
       </c>
@@ -1806,13 +2020,19 @@
       <c r="M18" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="N18" s="8"/>
+      <c r="N18" s="8" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="9">
+      <c r="A19" s="7"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="21">
         <v>25</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="21" t="s">
+        <v>199</v>
+      </c>
       <c r="E19" s="8">
         <v>753</v>
       </c>
@@ -1828,95 +2048,107 @@
       <c r="M19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C20" s="10">
+      <c r="N19" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="34"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="36">
         <v>18</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="10">
+      <c r="D20" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" s="35">
         <v>0</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10" t="s">
+      <c r="F20" s="35"/>
+      <c r="G20" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10" t="s">
+      <c r="H20" s="36"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="N20" s="10"/>
+      <c r="N20" s="46" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="43"/>
+      <c r="C21" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="30" t="s">
+      <c r="D21" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="K21" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="L21" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="M21" s="30" t="s">
+      <c r="H21" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="M21" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="N21" s="30" t="s">
-        <v>103</v>
+      <c r="N21" s="29" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C23" s="11">
+      <c r="A23" s="7"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="20">
         <v>8</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="11">
+        <v>8</v>
+      </c>
       <c r="E23" s="20" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="15" t="s">
@@ -1926,21 +2158,27 @@
       <c r="I23" s="11"/>
       <c r="J23" s="20"/>
       <c r="K23" s="11" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="L23" s="20"/>
       <c r="M23" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="N23" s="20"/>
+      <c r="N23" s="20" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C24" s="8">
+      <c r="A24" s="7"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="13">
         <v>9</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="8">
+        <v>9</v>
+      </c>
       <c r="E24" s="13" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="13" t="s">
@@ -1950,21 +2188,27 @@
       <c r="I24" s="8"/>
       <c r="J24" s="21"/>
       <c r="K24" s="8" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="N24" s="21"/>
+      <c r="N24" s="21" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C25" s="9">
+      <c r="A25" s="7"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="21">
         <v>11</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="8">
+        <v>10</v>
+      </c>
       <c r="E25" s="21" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13" t="s">
@@ -1974,21 +2218,27 @@
       <c r="I25" s="8"/>
       <c r="J25" s="13"/>
       <c r="K25" s="8" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="L25" s="21"/>
       <c r="M25" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="N25" s="13"/>
+      <c r="N25" s="13" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C26" s="10">
+      <c r="A26" s="7"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="14">
         <v>13</v>
       </c>
-      <c r="D26" s="16"/>
+      <c r="D26" s="16">
+        <v>11</v>
+      </c>
       <c r="E26" s="14" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14" t="s">
@@ -1998,71 +2248,81 @@
       <c r="I26" s="16"/>
       <c r="J26" s="14"/>
       <c r="K26" s="16" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="N26" s="14"/>
+      <c r="N26" s="14" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="G27" s="30" t="s">
+      <c r="D27" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="K27" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="L27" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="M27" s="30" t="s">
+      <c r="H27" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="L27" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="M27" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="N27" s="30" t="s">
-        <v>104</v>
+      <c r="N27" s="27" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C29" s="12">
+      <c r="A29" s="7"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="15">
         <v>4.5</v>
       </c>
-      <c r="D29" s="20"/>
+      <c r="D29" s="20" t="s">
+        <v>191</v>
+      </c>
       <c r="E29" s="11">
         <v>1933</v>
       </c>
@@ -2078,13 +2338,19 @@
       <c r="M29" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="N29" s="11"/>
+      <c r="N29" s="11" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C30" s="8">
+      <c r="A30" s="7"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="13">
         <v>9</v>
       </c>
-      <c r="D30" s="21"/>
+      <c r="D30" s="13" t="s">
+        <v>192</v>
+      </c>
       <c r="E30" s="8">
         <v>1930</v>
       </c>
@@ -2100,13 +2366,19 @@
       <c r="M30" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N30" s="8"/>
+      <c r="N30" s="8" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C31" s="8">
+      <c r="A31" s="7"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="13">
         <v>3</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="21" t="s">
+        <v>194</v>
+      </c>
       <c r="E31" s="8">
         <v>1936</v>
       </c>
@@ -2122,13 +2394,19 @@
       <c r="M31" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="N31" s="8"/>
+      <c r="N31" s="8" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C32" s="10">
+      <c r="A32" s="7"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="14">
         <v>6.5</v>
       </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="E32" s="16">
         <v>1934</v>
       </c>
@@ -2144,67 +2422,77 @@
       <c r="M32" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="N32" s="16"/>
-    </row>
-    <row r="33" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N32" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="G33" s="30" t="s">
+      <c r="D33" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="I33" s="30" t="s">
+      <c r="H33" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="I33" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="J33" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="K33" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="L33" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="M33" s="30" t="s">
+      <c r="J33" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L33" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="M33" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="N33" s="30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="3:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N33" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-    </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C35" s="11">
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="20">
         <v>28</v>
       </c>
-      <c r="D35" s="12"/>
+      <c r="D35" s="12" t="s">
+        <v>206</v>
+      </c>
       <c r="E35" s="20" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11" t="s">
@@ -2218,15 +2506,21 @@
       <c r="M35" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="N35" s="20"/>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C36" s="8">
+      <c r="N35" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="13">
         <v>38</v>
       </c>
-      <c r="D36" s="8"/>
+      <c r="D36" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="E36" s="21" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8" t="s">
@@ -2240,15 +2534,21 @@
       <c r="M36" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="N36" s="13"/>
-    </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C37" s="8">
+      <c r="N36" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="13">
         <v>32</v>
       </c>
-      <c r="D37" s="8"/>
+      <c r="D37" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="E37" s="13" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8" t="s">
@@ -2262,15 +2562,21 @@
       <c r="M37" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="N37" s="21"/>
-    </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C38" s="9">
+      <c r="N37" s="21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="21">
         <v>36</v>
       </c>
-      <c r="D38" s="10"/>
+      <c r="D38" s="10" t="s">
+        <v>172</v>
+      </c>
       <c r="E38" s="14" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="9" t="s">
@@ -2284,37 +2590,39 @@
       <c r="M38" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="N38" s="14"/>
-    </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-    </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-    </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N38" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -2328,7 +2636,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -2342,7 +2650,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -2356,7 +2664,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -2372,6 +2680,89 @@
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
     <mergeCell ref="A21:B22"/>
     <mergeCell ref="J39:J40"/>
     <mergeCell ref="K39:K40"/>
@@ -2388,89 +2779,6 @@
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="M27:M28"/>
     <mergeCell ref="I21:I22"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="228">
   <si>
     <t>Kategorien</t>
   </si>
@@ -423,21 +423,6 @@
     <t>Probe 082:</t>
   </si>
   <si>
-    <t>Probe 960:</t>
-  </si>
-  <si>
-    <t>Probe 297:</t>
-  </si>
-  <si>
-    <t>Probe 996:</t>
-  </si>
-  <si>
-    <t>Probe 767:</t>
-  </si>
-  <si>
-    <t>Probe 569:</t>
-  </si>
-  <si>
     <t>Probe 769:</t>
   </si>
   <si>
@@ -646,6 +631,84 @@
   </si>
   <si>
     <t>Japan</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>LUA</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Probe 960: Datenbanken der Programmiersprachen erfolgreich durchsucht. Nicht-existente Sprache ausfindig machen.</t>
+  </si>
+  <si>
+    <t>HDMI</t>
+  </si>
+  <si>
+    <t>DVI</t>
+  </si>
+  <si>
+    <t>Display Port</t>
+  </si>
+  <si>
+    <t>Klinke</t>
+  </si>
+  <si>
+    <t>Probe 297: Display optimiert. Mögliche Signalausgänge der Grafikkarte untersucht. Falschen Output angeben.</t>
+  </si>
+  <si>
+    <t>Probe 996: Speicherplatzüberprüfung positiv. Größe von 2GB in MB angeben.</t>
+  </si>
+  <si>
+    <t>Probe 767: Hardware optimiert. Abkürzung ROM erläutern.</t>
+  </si>
+  <si>
+    <t>Read Only Memory</t>
+  </si>
+  <si>
+    <t>Refresh Only Memory</t>
+  </si>
+  <si>
+    <t>Read One Memory</t>
+  </si>
+  <si>
+    <t>Reliable Online Memory</t>
+  </si>
+  <si>
+    <t>Probe 218: Betriebssysteme installiert. GUI geladen. Erstes Betriebssystem mit grafischer Oberfläche nennen.</t>
+  </si>
+  <si>
+    <t>Mac OS</t>
+  </si>
+  <si>
+    <t>DOS 5.0</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Windows 98</t>
+  </si>
+  <si>
+    <t>Probe 569: Englische Hardwarebezeichnungen untersucht. Bedeutung "mainframe" angeben.</t>
+  </si>
+  <si>
+    <t>zentraler Großcomputer</t>
+  </si>
+  <si>
+    <t>Druckserver</t>
+  </si>
+  <si>
+    <t>Server im lokalen Netz</t>
+  </si>
+  <si>
+    <t>alleinstehendes Notebook</t>
   </si>
 </sst>
 </file>
@@ -973,42 +1036,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1017,30 +1044,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1335,31 +1398,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1402,12 +1465,12 @@
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1450,12 +1513,12 @@
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1508,7 +1571,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F4"/>
+      <selection activeCell="I15" sqref="I15:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,129 +1580,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="34" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="30" t="s">
+      <c r="F3" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="44"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E5" s="12">
         <v>1914</v>
@@ -1648,7 +1711,9 @@
       <c r="G5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="20" t="s">
+        <v>202</v>
+      </c>
       <c r="I5" s="11"/>
       <c r="J5" s="12"/>
       <c r="K5" s="20"/>
@@ -1662,12 +1727,12 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="44"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="21" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E6" s="8">
         <v>1939</v>
@@ -1676,7 +1741,9 @@
       <c r="G6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="13" t="s">
+        <v>203</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="13"/>
@@ -1690,12 +1757,12 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="44"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E7" s="8">
         <v>1789</v>
@@ -1704,7 +1771,9 @@
       <c r="G7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="21" t="s">
+        <v>205</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="21"/>
@@ -1718,12 +1787,12 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="44"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E8" s="10">
         <v>1871</v>
@@ -1732,7 +1801,9 @@
       <c r="G8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="14" t="s">
+        <v>204</v>
+      </c>
       <c r="I8" s="16"/>
       <c r="J8" s="10"/>
       <c r="K8" s="14"/>
@@ -1746,63 +1817,63 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="30" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="27" t="s">
+      <c r="D9" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="I9" s="27" t="s">
+      <c r="H9" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="I9" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="L9" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="N9" s="27" t="s">
+      <c r="N9" s="41" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="44"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="15">
         <v>54</v>
       </c>
@@ -1810,13 +1881,15 @@
         <v>2016</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>207</v>
+      </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="12"/>
@@ -1830,7 +1903,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="44"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="13">
         <v>52</v>
       </c>
@@ -1838,13 +1911,15 @@
         <v>2019</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="I12" s="21"/>
       <c r="J12" s="13"/>
       <c r="K12" s="8"/>
@@ -1858,7 +1933,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="44"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="13">
         <v>60</v>
       </c>
@@ -1866,13 +1941,15 @@
         <v>2017</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>209</v>
+      </c>
       <c r="I13" s="13"/>
       <c r="J13" s="21"/>
       <c r="K13" s="8"/>
@@ -1886,7 +1963,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="44"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="14">
         <v>56</v>
       </c>
@@ -1894,13 +1971,15 @@
         <v>2020</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="10"/>
@@ -1914,68 +1993,68 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="27" t="s">
+      <c r="D15" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="27" t="s">
+      <c r="H15" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="I15" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="K15" s="27" t="s">
+      <c r="K15" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="L15" s="27" t="s">
+      <c r="L15" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="M15" s="27" t="s">
+      <c r="M15" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="N15" s="27" t="s">
-        <v>170</v>
+      <c r="N15" s="41" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="44"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="20">
         <v>15</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E17" s="12">
         <v>800</v>
@@ -1984,7 +2063,9 @@
       <c r="G17" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20">
+        <v>2000</v>
+      </c>
       <c r="I17" s="12"/>
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
@@ -1993,17 +2074,17 @@
         <v>87</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="44"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="13">
         <v>22</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E18" s="8">
         <v>912</v>
@@ -2012,7 +2093,9 @@
       <c r="G18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="21">
+        <v>2048</v>
+      </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="13"/>
@@ -2021,17 +2104,17 @@
         <v>86</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="44"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="21">
         <v>25</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E19" s="8">
         <v>753</v>
@@ -2040,7 +2123,9 @@
       <c r="G19" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="13">
+        <v>2024</v>
+      </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="21"/>
@@ -2049,98 +2134,100 @@
         <v>88</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="36">
+      <c r="A20" s="22"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="24">
         <v>18</v>
       </c>
-      <c r="D20" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="E20" s="35">
+      <c r="D20" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="23">
         <v>0</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35" t="s">
+      <c r="F20" s="23"/>
+      <c r="G20" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35" t="s">
+      <c r="H20" s="24">
+        <v>1984</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="N20" s="46" t="s">
-        <v>174</v>
+      <c r="N20" s="28" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="39" t="s">
+      <c r="B21" s="40"/>
+      <c r="C21" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="G21" s="29" t="s">
+      <c r="D21" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="I21" s="29" t="s">
+      <c r="H21" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="I21" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="J21" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="K21" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="L21" s="29" t="s">
+      <c r="K21" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="M21" s="29" t="s">
+      <c r="M21" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="N21" s="29" t="s">
-        <v>177</v>
+      <c r="N21" s="42" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="44"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="20">
         <v>8</v>
       </c>
@@ -2148,29 +2235,31 @@
         <v>8</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="20"/>
+      <c r="H23" s="20" t="s">
+        <v>215</v>
+      </c>
       <c r="I23" s="11"/>
       <c r="J23" s="20"/>
       <c r="K23" s="11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L23" s="20"/>
       <c r="M23" s="15" t="s">
         <v>96</v>
       </c>
       <c r="N23" s="20" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="44"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="13">
         <v>9</v>
       </c>
@@ -2178,29 +2267,31 @@
         <v>9</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="21"/>
+      <c r="H24" s="21" t="s">
+        <v>214</v>
+      </c>
       <c r="I24" s="8"/>
       <c r="J24" s="21"/>
       <c r="K24" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="13" t="s">
         <v>97</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" s="44"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="21">
         <v>11</v>
       </c>
@@ -2208,29 +2299,31 @@
         <v>10</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="13"/>
+      <c r="H25" s="13" t="s">
+        <v>216</v>
+      </c>
       <c r="I25" s="8"/>
       <c r="J25" s="13"/>
       <c r="K25" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L25" s="21"/>
       <c r="M25" s="13" t="s">
         <v>98</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="44"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="14">
         <v>13</v>
       </c>
@@ -2238,90 +2331,92 @@
         <v>11</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="14"/>
+      <c r="H26" s="14" t="s">
+        <v>217</v>
+      </c>
       <c r="I26" s="16"/>
       <c r="J26" s="14"/>
       <c r="K26" s="16" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14" t="s">
         <v>99</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="30" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="27" t="s">
+      <c r="D27" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="I27" s="27" t="s">
+      <c r="H27" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="I27" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="J27" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="K27" s="27" t="s">
+      <c r="K27" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="L27" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="M27" s="27" t="s">
+      <c r="M27" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="N27" s="27" t="s">
-        <v>178</v>
+      <c r="N27" s="41" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="44"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="15">
         <v>4.5</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E29" s="11">
         <v>1933</v>
@@ -2330,7 +2425,9 @@
       <c r="G29" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="12" t="s">
+        <v>219</v>
+      </c>
       <c r="I29" s="20"/>
       <c r="J29" s="12"/>
       <c r="K29" s="20"/>
@@ -2339,17 +2436,17 @@
         <v>83</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="44"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="13">
         <v>9</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E30" s="8">
         <v>1930</v>
@@ -2358,7 +2455,9 @@
       <c r="G30" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="I30" s="13"/>
       <c r="J30" s="8"/>
       <c r="K30" s="21"/>
@@ -2367,17 +2466,17 @@
         <v>82</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="44"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="13">
         <v>3</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E31" s="8">
         <v>1936</v>
@@ -2386,7 +2485,9 @@
       <c r="G31" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="I31" s="21"/>
       <c r="J31" s="8"/>
       <c r="K31" s="13"/>
@@ -2395,17 +2496,17 @@
         <v>84</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="44"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="14">
         <v>6.5</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E32" s="16">
         <v>1934</v>
@@ -2414,7 +2515,9 @@
       <c r="G32" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="10"/>
+      <c r="H32" s="10" t="s">
+        <v>222</v>
+      </c>
       <c r="I32" s="14"/>
       <c r="J32" s="10"/>
       <c r="K32" s="14"/>
@@ -2423,82 +2526,84 @@
         <v>80</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="30" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" s="27" t="s">
+      <c r="D33" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="I33" s="27" t="s">
+      <c r="H33" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="I33" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="J33" s="27" t="s">
+      <c r="J33" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="K33" s="27" t="s">
+      <c r="K33" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="L33" s="27" t="s">
+      <c r="L33" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="M33" s="27" t="s">
+      <c r="M33" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="N33" s="27" t="s">
-        <v>185</v>
+      <c r="N33" s="41" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="44"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="20">
         <v>28</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H35" s="20"/>
+      <c r="H35" s="20" t="s">
+        <v>225</v>
+      </c>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
@@ -2507,26 +2612,28 @@
         <v>91</v>
       </c>
       <c r="N35" s="20" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="B36" s="44"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="13">
         <v>38</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H36" s="13"/>
+      <c r="H36" s="13" t="s">
+        <v>226</v>
+      </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="21"/>
@@ -2535,26 +2642,28 @@
         <v>93</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="44"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="13">
         <v>32</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="21"/>
+      <c r="H37" s="21" t="s">
+        <v>224</v>
+      </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="13"/>
@@ -2563,26 +2672,28 @@
         <v>90</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="B38" s="44"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="21">
         <v>36</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H38" s="14"/>
+      <c r="H38" s="14" t="s">
+        <v>227</v>
+      </c>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
       <c r="K38" s="14"/>
@@ -2591,36 +2702,36 @@
         <v>94</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C41" s="7"/>
@@ -2680,89 +2791,6 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
     <mergeCell ref="A21:B22"/>
     <mergeCell ref="J39:J40"/>
     <mergeCell ref="K39:K40"/>
@@ -2779,6 +2807,89 @@
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="M27:M28"/>
     <mergeCell ref="I21:I22"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="251">
   <si>
     <t>Kategorien</t>
   </si>
@@ -198,9 +198,6 @@
     <t>P2 und P1 gleich schnell</t>
   </si>
   <si>
-    <t>Probe 038: Gleichförmig rotierendes System: P1,2 auf Rotationsbahnen. P1 mit r=5 Einheiten. P2 mit r= 8 Einheiten. Absolute Geschwindigkeiten vergleichen.</t>
-  </si>
-  <si>
     <t>Geschwindigkeiten = 0</t>
   </si>
   <si>
@@ -423,24 +420,6 @@
     <t>Probe 082:</t>
   </si>
   <si>
-    <t>Probe 769:</t>
-  </si>
-  <si>
-    <t>Probe 694:</t>
-  </si>
-  <si>
-    <t>Probe 464:</t>
-  </si>
-  <si>
-    <t>Probe 110:</t>
-  </si>
-  <si>
-    <t>Probe 174:</t>
-  </si>
-  <si>
-    <t>Probe 065:</t>
-  </si>
-  <si>
     <t>Johannes</t>
   </si>
   <si>
@@ -709,6 +688,96 @@
   </si>
   <si>
     <t>alleinstehendes Notebook</t>
+  </si>
+  <si>
+    <t>Probe 038: Gleichförmig rotierendes System: P1,2 auf Rotationsbahnen. P1: r=5. P2: r= 8. Absolute Geschwindigkeiten vergleichen.</t>
+  </si>
+  <si>
+    <t>Probe 769: Vergleich der Notenschlüssel. Gesucht: Note im Bassschlüssel, die im Violinenschlüssel auf dem kleinen d liegt.</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Probe 694: Epochen im Vergleich. Älteste der 4 angegebenen Kunstepochen angeben.</t>
+  </si>
+  <si>
+    <t>Gotik</t>
+  </si>
+  <si>
+    <t>Barock</t>
+  </si>
+  <si>
+    <t>Romantik</t>
+  </si>
+  <si>
+    <t>Impressionismus</t>
+  </si>
+  <si>
+    <t>Probe 110: Musikimpressionen alter Bands. Suche Band, die am frühsten gegründet wurde.</t>
+  </si>
+  <si>
+    <t>Simon &amp; Garfunkel</t>
+  </si>
+  <si>
+    <t>Beatles</t>
+  </si>
+  <si>
+    <t>Rolling Stones</t>
+  </si>
+  <si>
+    <t>Genesis</t>
+  </si>
+  <si>
+    <t>Michelangelo</t>
+  </si>
+  <si>
+    <t>Botticelli</t>
+  </si>
+  <si>
+    <t>Probe 174: Besuch des Vatikans. Benennung des Künstlers der Deckengemälde der Sixtinischen Kapelle.</t>
+  </si>
+  <si>
+    <t>Dürer</t>
+  </si>
+  <si>
+    <t>Rembrandt</t>
+  </si>
+  <si>
+    <t>Probe 065: Goldene Schalplatten eingelesen. Erkennung des meist ausgezeichneten Interpreten.</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Pink Floyd</t>
+  </si>
+  <si>
+    <t>Michael Jackson</t>
+  </si>
+  <si>
+    <t>Probe 464: Kunstgeschichte erforscht. Jüngsten der angegebenen Künstler identifizieren.</t>
+  </si>
+  <si>
+    <t>Hundertwasser</t>
+  </si>
+  <si>
+    <t>Dalí</t>
+  </si>
+  <si>
+    <t>Matisse</t>
+  </si>
+  <si>
+    <t>Picasso</t>
   </si>
 </sst>
 </file>
@@ -1060,6 +1129,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1074,36 +1173,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1571,7 +1640,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:I16"/>
+      <selection activeCell="F15" sqref="F15:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,120 +1649,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" s="37" t="s">
+      <c r="D3" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="G3" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>100</v>
+      <c r="H3" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -1702,27 +1771,29 @@
         <v>34</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E5" s="12">
         <v>1914</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>224</v>
+      </c>
       <c r="G5" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="12"/>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
       <c r="M5" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1732,27 +1803,29 @@
         <v>35</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E6" s="8">
         <v>1939</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>225</v>
+      </c>
       <c r="G6" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="13"/>
       <c r="L6" s="21"/>
       <c r="M6" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1762,27 +1835,29 @@
         <v>36</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E7" s="8">
         <v>1789</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>226</v>
+      </c>
       <c r="G7" s="13" t="s">
         <v>46</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="21"/>
       <c r="L7" s="13"/>
       <c r="M7" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1792,84 +1867,86 @@
         <v>37</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E8" s="10">
         <v>1871</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="16" t="s">
+        <v>223</v>
+      </c>
       <c r="G8" s="14" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="10"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="41" t="s">
+      <c r="D9" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="I9" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="J9" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="K9" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="L9" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="M9" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" s="41" t="s">
-        <v>106</v>
+      <c r="H9" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -1881,14 +1958,16 @@
         <v>2016</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F11" s="20"/>
+        <v>151</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>229</v>
+      </c>
       <c r="G11" s="11" t="s">
         <v>51</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -1898,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1911,14 +1990,16 @@
         <v>2019</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F12" s="21"/>
+        <v>150</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>228</v>
+      </c>
       <c r="G12" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="13"/>
@@ -1928,7 +2009,7 @@
         <v>4</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1941,14 +2022,16 @@
         <v>2017</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" s="13"/>
+        <v>149</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>230</v>
+      </c>
       <c r="G13" s="9" t="s">
         <v>50</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="21"/>
@@ -1958,7 +2041,7 @@
         <v>3</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1971,14 +2054,16 @@
         <v>2020</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="14"/>
+        <v>148</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>231</v>
+      </c>
       <c r="G14" s="10" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -1988,64 +2073,64 @@
         <v>2</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="26"/>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="I15" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="J15" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="K15" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="L15" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="M15" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="N15" s="41" t="s">
-        <v>165</v>
+      <c r="D15" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" s="38" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -2054,14 +2139,16 @@
         <v>15</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E17" s="12">
         <v>800</v>
       </c>
-      <c r="F17" s="12"/>
+      <c r="F17" s="12" t="s">
+        <v>247</v>
+      </c>
       <c r="G17" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H17" s="20">
         <v>2000</v>
@@ -2071,10 +2158,10 @@
       <c r="K17" s="20"/>
       <c r="L17" s="12"/>
       <c r="M17" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2084,14 +2171,16 @@
         <v>22</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E18" s="8">
         <v>912</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>248</v>
+      </c>
       <c r="G18" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H18" s="21">
         <v>2048</v>
@@ -2101,10 +2190,10 @@
       <c r="K18" s="13"/>
       <c r="L18" s="8"/>
       <c r="M18" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2114,14 +2203,16 @@
         <v>25</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E19" s="8">
         <v>753</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>249</v>
+      </c>
       <c r="G19" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H19" s="13">
         <v>2024</v>
@@ -2131,10 +2222,10 @@
       <c r="K19" s="21"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2144,14 +2235,16 @@
         <v>18</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E20" s="23">
         <v>0</v>
       </c>
-      <c r="F20" s="23"/>
+      <c r="F20" s="23" t="s">
+        <v>250</v>
+      </c>
       <c r="G20" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H20" s="24">
         <v>1984</v>
@@ -2161,69 +2254,69 @@
       <c r="K20" s="24"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N20" s="28" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="43" t="s">
+      <c r="B21" s="33"/>
+      <c r="C21" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="I21" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="K21" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="L21" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="M21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N21" s="42" t="s">
-        <v>172</v>
+      <c r="D21" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="L21" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="M21" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="N21" s="40" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -2235,26 +2328,28 @@
         <v>8</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23" s="20"/>
+        <v>143</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>234</v>
+      </c>
       <c r="G23" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="20"/>
       <c r="K23" s="11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L23" s="20"/>
       <c r="M23" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N23" s="20" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2267,26 +2362,28 @@
         <v>9</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" s="21"/>
+        <v>145</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>233</v>
+      </c>
       <c r="G24" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="21"/>
       <c r="K24" s="8" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2299,26 +2396,28 @@
         <v>10</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="13"/>
+        <v>142</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>235</v>
+      </c>
       <c r="G25" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="13"/>
       <c r="K25" s="8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L25" s="21"/>
       <c r="M25" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2331,83 +2430,85 @@
         <v>11</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F26" s="14"/>
+        <v>144</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>236</v>
+      </c>
       <c r="G26" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="14"/>
       <c r="K26" s="16" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="I27" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="J27" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="K27" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="L27" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="M27" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="N27" s="41" t="s">
-        <v>173</v>
+      <c r="D27" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="I27" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="J27" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="K27" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="L27" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="M27" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="N27" s="38" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
@@ -2416,27 +2517,29 @@
         <v>4.5</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E29" s="11">
         <v>1933</v>
       </c>
-      <c r="F29" s="20"/>
+      <c r="F29" s="20" t="s">
+        <v>240</v>
+      </c>
       <c r="G29" s="11" t="s">
         <v>55</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I29" s="20"/>
       <c r="J29" s="12"/>
       <c r="K29" s="20"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2446,27 +2549,29 @@
         <v>9</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E30" s="8">
         <v>1930</v>
       </c>
-      <c r="F30" s="13"/>
+      <c r="F30" s="13" t="s">
+        <v>238</v>
+      </c>
       <c r="G30" s="8" t="s">
         <v>56</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="8"/>
       <c r="K30" s="21"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2476,27 +2581,29 @@
         <v>3</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E31" s="8">
         <v>1936</v>
       </c>
-      <c r="F31" s="21"/>
+      <c r="F31" s="21" t="s">
+        <v>237</v>
+      </c>
       <c r="G31" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="I31" s="21"/>
       <c r="J31" s="8"/>
       <c r="K31" s="13"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2506,84 +2613,86 @@
         <v>6.5</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E32" s="16">
         <v>1934</v>
       </c>
-      <c r="F32" s="14"/>
+      <c r="F32" s="14" t="s">
+        <v>241</v>
+      </c>
       <c r="G32" s="16" t="s">
         <v>54</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="I32" s="14"/>
       <c r="J32" s="10"/>
       <c r="K32" s="14"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="26"/>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="F33" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="G33" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="H33" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="I33" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="J33" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="K33" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="L33" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="M33" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="N33" s="41" t="s">
-        <v>180</v>
+      <c r="D33" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="I33" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="K33" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="L33" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="M33" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="38" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="26"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -2592,27 +2701,29 @@
         <v>28</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="F35" s="11"/>
+        <v>155</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>243</v>
+      </c>
       <c r="G35" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
       <c r="L35" s="12"/>
       <c r="M35" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N35" s="20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -2622,27 +2733,29 @@
         <v>38</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F36" s="8"/>
+        <v>154</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>244</v>
+      </c>
       <c r="G36" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="21"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2652,27 +2765,29 @@
         <v>32</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F37" s="8"/>
+        <v>156</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="G37" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="13"/>
       <c r="L37" s="8"/>
       <c r="M37" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2682,56 +2797,58 @@
         <v>36</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F38" s="16"/>
+        <v>157</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>234</v>
+      </c>
       <c r="G38" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
       <c r="K38" s="14"/>
       <c r="L38" s="10"/>
       <c r="M38" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C41" s="7"/>
@@ -2791,6 +2908,89 @@
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
     <mergeCell ref="A21:B22"/>
     <mergeCell ref="J39:J40"/>
     <mergeCell ref="K39:K40"/>
@@ -2807,89 +3007,6 @@
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="M27:M28"/>
     <mergeCell ref="I21:I22"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="274">
   <si>
     <t>Kategorien</t>
   </si>
@@ -327,9 +327,6 @@
     <t>Probe 691: Auflistung von Kraftarten. Fehlerhafte Kraft entfernen.</t>
   </si>
   <si>
-    <t>Probe 858:</t>
-  </si>
-  <si>
     <t>Maximalkraft</t>
   </si>
   <si>
@@ -408,18 +405,6 @@
     <t>Probe 866:</t>
   </si>
   <si>
-    <t>Probe 755:</t>
-  </si>
-  <si>
-    <t>Probe 488:</t>
-  </si>
-  <si>
-    <t>Probe 913:</t>
-  </si>
-  <si>
-    <t>Probe 082:</t>
-  </si>
-  <si>
     <t>Johannes</t>
   </si>
   <si>
@@ -778,6 +763,90 @@
   </si>
   <si>
     <t>Picasso</t>
+  </si>
+  <si>
+    <t>Probe 632: Analyse von Goethes Werken abgeschlossen. Identifiziere nicht von Goethe stammendes Werk.</t>
+  </si>
+  <si>
+    <t>Werther</t>
+  </si>
+  <si>
+    <t>Faust</t>
+  </si>
+  <si>
+    <t>Prometheus</t>
+  </si>
+  <si>
+    <t>Wilhelm Tell</t>
+  </si>
+  <si>
+    <t>Probe 755: Literarische Epochen im Vergleich. Jüngste der 4 angegebenen Epochen angeben.</t>
+  </si>
+  <si>
+    <t>Naturalismus</t>
+  </si>
+  <si>
+    <t>Klassik</t>
+  </si>
+  <si>
+    <t>Sturm und Drang</t>
+  </si>
+  <si>
+    <t>Lyrik</t>
+  </si>
+  <si>
+    <t>Epik</t>
+  </si>
+  <si>
+    <t>Dramatik</t>
+  </si>
+  <si>
+    <t>Probe 488: Betrachtung der literarischen Großgattungen. Nicht-literarische Großgattung benennen.</t>
+  </si>
+  <si>
+    <t>Aufklärung</t>
+  </si>
+  <si>
+    <t>Probe 913: Untersuchung der Todesursache Heinrichs vin Kleist. Todesursache angeben.</t>
+  </si>
+  <si>
+    <t>Suizid</t>
+  </si>
+  <si>
+    <t>Mord</t>
+  </si>
+  <si>
+    <t>Krankheit</t>
+  </si>
+  <si>
+    <t>Drogenkonsum</t>
+  </si>
+  <si>
+    <t>Probe 082: Moderne Literatur. Ort der größten deutschen Buchmesse (neben Leipzig) angeben.</t>
+  </si>
+  <si>
+    <t>Dresden</t>
+  </si>
+  <si>
+    <t>Köln</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Probe 858: Klassische Dramen. Bennant werden soll die Gestalt, in der Mephiso Faust erscheint.</t>
+  </si>
+  <si>
+    <t>Pudel</t>
+  </si>
+  <si>
+    <t>Rabe</t>
+  </si>
+  <si>
+    <t>Katze</t>
+  </si>
+  <si>
+    <t>Pferd</t>
   </si>
 </sst>
 </file>
@@ -1129,50 +1198,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1640,7 +1709,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:F16"/>
+      <selection activeCell="I39" sqref="I39:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,120 +1718,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="34" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="G3" s="36" t="s">
+      <c r="F3" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="M3" s="36" t="s">
+      <c r="H3" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -1771,21 +1840,23 @@
         <v>34</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E5" s="12">
         <v>1914</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="I5" s="11"/>
+        <v>190</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>247</v>
+      </c>
       <c r="J5" s="12"/>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
@@ -1793,7 +1864,7 @@
         <v>76</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1803,21 +1874,23 @@
         <v>35</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E6" s="8">
         <v>1939</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="I6" s="8"/>
+        <v>191</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>248</v>
+      </c>
       <c r="J6" s="8"/>
       <c r="K6" s="13"/>
       <c r="L6" s="21"/>
@@ -1825,7 +1898,7 @@
         <v>74</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1835,21 +1908,23 @@
         <v>36</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E7" s="8">
         <v>1789</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>46</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="I7" s="8"/>
+        <v>193</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>249</v>
+      </c>
       <c r="J7" s="8"/>
       <c r="K7" s="21"/>
       <c r="L7" s="13"/>
@@ -1857,7 +1932,7 @@
         <v>75</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1867,21 +1942,23 @@
         <v>37</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E8" s="10">
         <v>1871</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="I8" s="16"/>
+        <v>192</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>250</v>
+      </c>
       <c r="J8" s="10"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
@@ -1889,64 +1966,64 @@
         <v>73</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="G9" s="38" t="s">
+      <c r="D9" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="G9" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="K9" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M9" s="38" t="s">
+      <c r="H9" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="J9" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="38" t="s">
-        <v>105</v>
+      <c r="N9" s="41" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -1958,18 +2035,20 @@
         <v>2016</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>51</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="I11" s="20"/>
+        <v>195</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>253</v>
+      </c>
       <c r="J11" s="20"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
@@ -1977,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1990,18 +2069,20 @@
         <v>2019</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="I12" s="21"/>
+        <v>196</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>252</v>
+      </c>
       <c r="J12" s="13"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -2009,7 +2090,7 @@
         <v>4</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2022,18 +2103,20 @@
         <v>2017</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>50</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="I13" s="13"/>
+        <v>197</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>259</v>
+      </c>
       <c r="J13" s="21"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -2041,7 +2124,7 @@
         <v>3</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2054,18 +2137,20 @@
         <v>2020</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="I14" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>254</v>
+      </c>
       <c r="J14" s="14"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -2073,64 +2158,64 @@
         <v>2</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="26"/>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="G15" s="38" t="s">
+      <c r="D15" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="G15" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="K15" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="L15" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="M15" s="38" t="s">
+      <c r="H15" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="J15" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="N15" s="38" t="s">
-        <v>158</v>
+      <c r="N15" s="41" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -2139,13 +2224,13 @@
         <v>15</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E17" s="12">
         <v>800</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>59</v>
@@ -2153,7 +2238,9 @@
       <c r="H17" s="20">
         <v>2000</v>
       </c>
-      <c r="I17" s="12"/>
+      <c r="I17" s="12" t="s">
+        <v>225</v>
+      </c>
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
       <c r="L17" s="12"/>
@@ -2161,7 +2248,7 @@
         <v>86</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2171,13 +2258,13 @@
         <v>22</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E18" s="8">
         <v>912</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>58</v>
@@ -2185,7 +2272,9 @@
       <c r="H18" s="21">
         <v>2048</v>
       </c>
-      <c r="I18" s="8"/>
+      <c r="I18" s="8" t="s">
+        <v>255</v>
+      </c>
       <c r="J18" s="8"/>
       <c r="K18" s="13"/>
       <c r="L18" s="8"/>
@@ -2193,7 +2282,7 @@
         <v>85</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2203,13 +2292,13 @@
         <v>25</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E19" s="8">
         <v>753</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>60</v>
@@ -2217,7 +2306,9 @@
       <c r="H19" s="13">
         <v>2024</v>
       </c>
-      <c r="I19" s="8"/>
+      <c r="I19" s="8" t="s">
+        <v>257</v>
+      </c>
       <c r="J19" s="8"/>
       <c r="K19" s="21"/>
       <c r="L19" s="8"/>
@@ -2225,7 +2316,7 @@
         <v>87</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2235,13 +2326,13 @@
         <v>18</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E20" s="23">
         <v>0</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>61</v>
@@ -2249,7 +2340,9 @@
       <c r="H20" s="24">
         <v>1984</v>
       </c>
-      <c r="I20" s="23"/>
+      <c r="I20" s="23" t="s">
+        <v>256</v>
+      </c>
       <c r="J20" s="25"/>
       <c r="K20" s="24"/>
       <c r="L20" s="23"/>
@@ -2257,66 +2350,66 @@
         <v>88</v>
       </c>
       <c r="N20" s="28" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="41" t="s">
+      <c r="B21" s="40"/>
+      <c r="C21" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="G21" s="40" t="s">
+      <c r="D21" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="G21" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="J21" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="K21" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="L21" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="M21" s="40" t="s">
+      <c r="H21" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="M21" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="N21" s="40" t="s">
-        <v>165</v>
+      <c r="N21" s="42" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -2328,28 +2421,30 @@
         <v>8</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>67</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="I23" s="11"/>
+        <v>203</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>264</v>
+      </c>
       <c r="J23" s="20"/>
       <c r="K23" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L23" s="20"/>
       <c r="M23" s="15" t="s">
         <v>95</v>
       </c>
       <c r="N23" s="20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2362,28 +2457,30 @@
         <v>9</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>64</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="I24" s="8"/>
+        <v>202</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>263</v>
+      </c>
       <c r="J24" s="21"/>
       <c r="K24" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="13" t="s">
         <v>96</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2396,28 +2493,30 @@
         <v>10</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>65</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="I25" s="8"/>
+        <v>204</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>262</v>
+      </c>
       <c r="J25" s="13"/>
       <c r="K25" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L25" s="21"/>
       <c r="M25" s="13" t="s">
         <v>97</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2430,85 +2529,87 @@
         <v>11</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>66</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="I26" s="16"/>
+        <v>205</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>261</v>
+      </c>
       <c r="J26" s="14"/>
       <c r="K26" s="16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14" t="s">
         <v>98</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="G27" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="H27" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="I27" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="J27" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="K27" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="L27" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="M27" s="38" t="s">
+      <c r="D27" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="I27" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="J27" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="K27" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="L27" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="M27" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="N27" s="38" t="s">
-        <v>166</v>
+      <c r="N27" s="41" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
@@ -2517,21 +2618,23 @@
         <v>4.5</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E29" s="11">
         <v>1933</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>55</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="I29" s="20"/>
+        <v>207</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>266</v>
+      </c>
       <c r="J29" s="12"/>
       <c r="K29" s="20"/>
       <c r="L29" s="11"/>
@@ -2539,7 +2642,7 @@
         <v>82</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2549,21 +2652,23 @@
         <v>9</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E30" s="8">
         <v>1930</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>56</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="I30" s="13"/>
+        <v>208</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>267</v>
+      </c>
       <c r="J30" s="8"/>
       <c r="K30" s="21"/>
       <c r="L30" s="8"/>
@@ -2571,7 +2676,7 @@
         <v>81</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2581,21 +2686,23 @@
         <v>3</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E31" s="8">
         <v>1936</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>57</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="I31" s="21"/>
+        <v>209</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>163</v>
+      </c>
       <c r="J31" s="8"/>
       <c r="K31" s="13"/>
       <c r="L31" s="8"/>
@@ -2603,7 +2710,7 @@
         <v>83</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2613,21 +2720,23 @@
         <v>6.5</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E32" s="16">
         <v>1934</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>54</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="I32" s="14"/>
+        <v>210</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>268</v>
+      </c>
       <c r="J32" s="10"/>
       <c r="K32" s="14"/>
       <c r="L32" s="16"/>
@@ -2635,64 +2744,64 @@
         <v>79</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="26"/>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="G33" s="38" t="s">
+      <c r="D33" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G33" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="I33" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J33" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="K33" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="L33" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="M33" s="38" t="s">
+      <c r="H33" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="I33" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="J33" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="K33" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="L33" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="M33" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="N33" s="38" t="s">
-        <v>173</v>
+      <c r="N33" s="41" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="26"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -2701,21 +2810,23 @@
         <v>28</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>70</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="I35" s="11"/>
+        <v>213</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>273</v>
+      </c>
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
       <c r="L35" s="12"/>
@@ -2723,7 +2834,7 @@
         <v>90</v>
       </c>
       <c r="N35" s="20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -2733,21 +2844,23 @@
         <v>38</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>71</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="I36" s="8"/>
+        <v>214</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>272</v>
+      </c>
       <c r="J36" s="8"/>
       <c r="K36" s="21"/>
       <c r="L36" s="8"/>
@@ -2755,7 +2868,7 @@
         <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2765,21 +2878,23 @@
         <v>32</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>72</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="I37" s="8"/>
+        <v>212</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>271</v>
+      </c>
       <c r="J37" s="8"/>
       <c r="K37" s="13"/>
       <c r="L37" s="8"/>
@@ -2787,7 +2902,7 @@
         <v>89</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2797,21 +2912,23 @@
         <v>36</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>69</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="I38" s="16"/>
+        <v>215</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>270</v>
+      </c>
       <c r="J38" s="16"/>
       <c r="K38" s="14"/>
       <c r="L38" s="10"/>
@@ -2819,36 +2936,36 @@
         <v>93</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C41" s="7"/>
@@ -2908,89 +3025,6 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
     <mergeCell ref="A21:B22"/>
     <mergeCell ref="J39:J40"/>
     <mergeCell ref="K39:K40"/>
@@ -3007,6 +3041,89 @@
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="M27:M28"/>
     <mergeCell ref="I21:I22"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="294">
   <si>
     <t>Kategorien</t>
   </si>
@@ -387,24 +387,6 @@
     <t>Probe 494:</t>
   </si>
   <si>
-    <t>Probe 219:</t>
-  </si>
-  <si>
-    <t>Probe 287:</t>
-  </si>
-  <si>
-    <t>Probe 644:</t>
-  </si>
-  <si>
-    <t>Probe 576:</t>
-  </si>
-  <si>
-    <t>Probe 506:</t>
-  </si>
-  <si>
-    <t>Probe 866:</t>
-  </si>
-  <si>
     <t>Johannes</t>
   </si>
   <si>
@@ -847,6 +829,84 @@
   </si>
   <si>
     <t>Pferd</t>
+  </si>
+  <si>
+    <t>Probe 219: Luftprobe entnommen. Gas mit größtem Volumenanteil in der Luft identifizieren.</t>
+  </si>
+  <si>
+    <t>Stickstoff</t>
+  </si>
+  <si>
+    <t>Sauerstoff</t>
+  </si>
+  <si>
+    <t>Kohlenstoffdioxid</t>
+  </si>
+  <si>
+    <t>Wasserdampf</t>
+  </si>
+  <si>
+    <t>Probe 287: Teleskop verwendet. Anzahl der Planeten im Sonnensystem angeben.</t>
+  </si>
+  <si>
+    <t>Probe 576: Eisenerzbohrung erfolgreich. Filtere Produkt, welches kein Eisenerz ist.</t>
+  </si>
+  <si>
+    <t>Magneteisenstein</t>
+  </si>
+  <si>
+    <t>Roteisenstein</t>
+  </si>
+  <si>
+    <t>Raseneisenstein</t>
+  </si>
+  <si>
+    <t>Schiefereisenstein</t>
+  </si>
+  <si>
+    <t>Probe 644: Weltreise wird abgeschlossen. Hauptstadt Japans gesucht.</t>
+  </si>
+  <si>
+    <t>Kyoto</t>
+  </si>
+  <si>
+    <t>Tokio</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Yokohama</t>
+  </si>
+  <si>
+    <t>Probe 506: Geologische Untersuchung zur Erdkruste. Plattentektonischen Vorgang benennen, bei dem sich eine Lithosphärenplatte unter eine andere schiebt.</t>
+  </si>
+  <si>
+    <t>Subduktion</t>
+  </si>
+  <si>
+    <t>Adaption</t>
+  </si>
+  <si>
+    <t>Subvention</t>
+  </si>
+  <si>
+    <t>Magmatisierung</t>
+  </si>
+  <si>
+    <t>Probe 866: Tiefseeforschung macht entdeckung. Bestimmung der tiefsten Stelle im Weltmeer.</t>
+  </si>
+  <si>
+    <t>Marianengraben</t>
+  </si>
+  <si>
+    <t>Yapgraben</t>
+  </si>
+  <si>
+    <t>Boningraben</t>
+  </si>
+  <si>
+    <t>Tongagraben</t>
   </si>
 </sst>
 </file>
@@ -1198,6 +1258,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1212,36 +1302,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1709,7 +1769,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39:I40"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,120 +1778,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="G3" s="37" t="s">
+      <c r="D3" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" s="37" t="s">
+      <c r="H3" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="K3" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="N3" s="36" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -1840,24 +1900,26 @@
         <v>34</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E5" s="12">
         <v>1914</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="J5" s="12"/>
+        <v>241</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>269</v>
+      </c>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
       <c r="M5" s="17" t="s">
@@ -1874,24 +1936,26 @@
         <v>35</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E6" s="8">
         <v>1939</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="J6" s="8"/>
+        <v>242</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>270</v>
+      </c>
       <c r="K6" s="13"/>
       <c r="L6" s="21"/>
       <c r="M6" s="18" t="s">
@@ -1908,24 +1972,26 @@
         <v>36</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E7" s="8">
         <v>1789</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>46</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="J7" s="8"/>
+        <v>243</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>271</v>
+      </c>
       <c r="K7" s="21"/>
       <c r="L7" s="13"/>
       <c r="M7" s="18" t="s">
@@ -1942,24 +2008,26 @@
         <v>37</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E8" s="10">
         <v>1871</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="J8" s="10"/>
+        <v>244</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>272</v>
+      </c>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="19" t="s">
@@ -1972,58 +2040,58 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="G9" s="41" t="s">
+      <c r="D9" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="I9" s="41" t="s">
-        <v>251</v>
-      </c>
-      <c r="J9" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="K9" s="41" t="s">
+      <c r="H9" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="K9" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="L9" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="M9" s="41" t="s">
+      <c r="M9" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="41" t="s">
+      <c r="N9" s="38" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -2035,21 +2103,23 @@
         <v>2016</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>51</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="J11" s="20"/>
+        <v>247</v>
+      </c>
+      <c r="J11" s="20">
+        <v>10</v>
+      </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="11">
@@ -2069,21 +2139,23 @@
         <v>2019</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="J12" s="13"/>
+        <v>246</v>
+      </c>
+      <c r="J12" s="13">
+        <v>9</v>
+      </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8">
@@ -2103,21 +2175,23 @@
         <v>2017</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>50</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="J13" s="21"/>
+        <v>253</v>
+      </c>
+      <c r="J13" s="21">
+        <v>8</v>
+      </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8">
@@ -2137,21 +2211,23 @@
         <v>2020</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="J14" s="14"/>
+        <v>248</v>
+      </c>
+      <c r="J14" s="14">
+        <v>7</v>
+      </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="16">
@@ -2164,58 +2240,58 @@
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="26"/>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="E15" s="41" t="s">
+      <c r="D15" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" s="38" t="s">
         <v>147</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="I15" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="J15" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="K15" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="L15" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="M15" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="N15" s="41" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -2224,13 +2300,13 @@
         <v>15</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E17" s="12">
         <v>800</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>59</v>
@@ -2239,16 +2315,18 @@
         <v>2000</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="J17" s="11"/>
+        <v>219</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>280</v>
+      </c>
       <c r="K17" s="20"/>
       <c r="L17" s="12"/>
       <c r="M17" s="11" t="s">
         <v>86</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2258,13 +2336,13 @@
         <v>22</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E18" s="8">
         <v>912</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>58</v>
@@ -2273,16 +2351,18 @@
         <v>2048</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="J18" s="8"/>
+        <v>249</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="K18" s="13"/>
       <c r="L18" s="8"/>
       <c r="M18" s="9" t="s">
         <v>85</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2292,13 +2372,13 @@
         <v>25</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E19" s="8">
         <v>753</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>60</v>
@@ -2307,16 +2387,18 @@
         <v>2024</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="J19" s="8"/>
+        <v>251</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>283</v>
+      </c>
       <c r="K19" s="21"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8" t="s">
         <v>87</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2326,13 +2408,13 @@
         <v>18</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E20" s="23">
         <v>0</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>61</v>
@@ -2341,75 +2423,77 @@
         <v>1984</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="J20" s="25"/>
+        <v>250</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>281</v>
+      </c>
       <c r="K20" s="24"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23" t="s">
         <v>88</v>
       </c>
       <c r="N20" s="28" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="43" t="s">
+      <c r="B21" s="33"/>
+      <c r="C21" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="G21" s="42" t="s">
+      <c r="D21" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="G21" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="I21" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="K21" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="L21" s="42" t="s">
+      <c r="H21" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="M21" s="42" t="s">
+      <c r="M21" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="N21" s="42" t="s">
-        <v>160</v>
+      <c r="N21" s="40" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -2421,30 +2505,32 @@
         <v>8</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>67</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="J23" s="20"/>
+        <v>258</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>275</v>
+      </c>
       <c r="K23" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L23" s="20"/>
       <c r="M23" s="15" t="s">
         <v>95</v>
       </c>
       <c r="N23" s="20" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2457,30 +2543,32 @@
         <v>9</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>64</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="J24" s="21"/>
+        <v>257</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>278</v>
+      </c>
       <c r="K24" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="13" t="s">
         <v>96</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2493,30 +2581,32 @@
         <v>10</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>65</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="J25" s="13"/>
+        <v>256</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>276</v>
+      </c>
       <c r="K25" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L25" s="21"/>
       <c r="M25" s="13" t="s">
         <v>97</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2529,87 +2619,89 @@
         <v>11</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>66</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="J26" s="14"/>
+        <v>255</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="K26" s="16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14" t="s">
         <v>98</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="I27" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="J27" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="K27" s="41" t="s">
+      <c r="D27" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="I27" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="J27" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="K27" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="L27" s="41" t="s">
+      <c r="L27" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="M27" s="41" t="s">
+      <c r="M27" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="N27" s="41" t="s">
-        <v>161</v>
+      <c r="N27" s="38" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
@@ -2618,31 +2710,33 @@
         <v>4.5</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E29" s="11">
         <v>1933</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>55</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="J29" s="12"/>
+        <v>260</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>285</v>
+      </c>
       <c r="K29" s="20"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11" t="s">
         <v>82</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2652,31 +2746,33 @@
         <v>9</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E30" s="8">
         <v>1930</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>56</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="J30" s="8"/>
+        <v>261</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>286</v>
+      </c>
       <c r="K30" s="21"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8" t="s">
         <v>81</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2686,31 +2782,33 @@
         <v>3</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E31" s="8">
         <v>1936</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>57</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="J31" s="8"/>
+        <v>157</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>287</v>
+      </c>
       <c r="K31" s="13"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8" t="s">
         <v>83</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2720,88 +2818,90 @@
         <v>6.5</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E32" s="16">
         <v>1934</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>54</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="J32" s="10"/>
+        <v>262</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>288</v>
+      </c>
       <c r="K32" s="14"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16" t="s">
         <v>79</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="26"/>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="F33" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="G33" s="41" t="s">
+      <c r="D33" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="G33" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="I33" s="41" t="s">
-        <v>269</v>
-      </c>
-      <c r="J33" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="K33" s="41" t="s">
+      <c r="H33" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="I33" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="J33" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="K33" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="L33" s="41" t="s">
+      <c r="L33" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="M33" s="41" t="s">
+      <c r="M33" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="N33" s="41" t="s">
-        <v>168</v>
+      <c r="N33" s="38" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="26"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -2810,31 +2910,33 @@
         <v>28</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>70</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="J35" s="11"/>
+        <v>267</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>293</v>
+      </c>
       <c r="K35" s="20"/>
       <c r="L35" s="12"/>
       <c r="M35" s="11" t="s">
         <v>90</v>
       </c>
       <c r="N35" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -2844,31 +2946,33 @@
         <v>38</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>71</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="J36" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>292</v>
+      </c>
       <c r="K36" s="21"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8" t="s">
         <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2878,31 +2982,33 @@
         <v>32</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>72</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="J37" s="8"/>
+        <v>265</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>291</v>
+      </c>
       <c r="K37" s="13"/>
       <c r="L37" s="8"/>
       <c r="M37" s="9" t="s">
         <v>89</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2912,60 +3018,62 @@
         <v>36</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>69</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="J38" s="16"/>
+        <v>264</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>290</v>
+      </c>
       <c r="K38" s="14"/>
       <c r="L38" s="10"/>
       <c r="M38" s="8" t="s">
         <v>93</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C41" s="7"/>
@@ -3025,6 +3133,89 @@
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
     <mergeCell ref="A21:B22"/>
     <mergeCell ref="J39:J40"/>
     <mergeCell ref="K39:K40"/>
@@ -3041,89 +3232,6 @@
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="M27:M28"/>
     <mergeCell ref="I21:I22"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="318">
   <si>
     <t>Kategorien</t>
   </si>
@@ -354,24 +354,6 @@
     <t>Baseball</t>
   </si>
   <si>
-    <t>Probe 632:</t>
-  </si>
-  <si>
-    <t>Probe 989:</t>
-  </si>
-  <si>
-    <t>Probe 218:</t>
-  </si>
-  <si>
-    <t>Probe 783:</t>
-  </si>
-  <si>
-    <t>Probe 179:</t>
-  </si>
-  <si>
-    <t>Probe 377:</t>
-  </si>
-  <si>
     <t>Probe 502:</t>
   </si>
   <si>
@@ -907,6 +889,96 @@
   </si>
   <si>
     <t>Tongagraben</t>
+  </si>
+  <si>
+    <t>Probe 632: Biologische Lehren benannt. Name der Lehre von den Zellen angeben.</t>
+  </si>
+  <si>
+    <t>Cytologie</t>
+  </si>
+  <si>
+    <t>Neurologie</t>
+  </si>
+  <si>
+    <t>Ökologie</t>
+  </si>
+  <si>
+    <t>Somatologie</t>
+  </si>
+  <si>
+    <t>Probe 989: Geschichte der Evolutionstheorie. Benennung des Begründers der modernen Evolutionstheorie.</t>
+  </si>
+  <si>
+    <t>Darwin</t>
+  </si>
+  <si>
+    <t>Dalton</t>
+  </si>
+  <si>
+    <t>Chaplin</t>
+  </si>
+  <si>
+    <t>Fleming</t>
+  </si>
+  <si>
+    <t>Apparatus respiratorius</t>
+  </si>
+  <si>
+    <t>Canalis alimentarius</t>
+  </si>
+  <si>
+    <t>Systema nervosum</t>
+  </si>
+  <si>
+    <t>Medulla ossium</t>
+  </si>
+  <si>
+    <t>Probe 783: Fachbegriffe der Körperbestandteile. Benennung des Darmtraktes (Latein).</t>
+  </si>
+  <si>
+    <t>Probe 218: Untersuchung der Volkskrankheiten. Grund für Diabetes Typ 2 angeben.</t>
+  </si>
+  <si>
+    <t>Insulinresistenz</t>
+  </si>
+  <si>
+    <t>Insulin-Überproduktion</t>
+  </si>
+  <si>
+    <t>Insulin-Unterproduktion</t>
+  </si>
+  <si>
+    <t>Glucagon-Abbaustörung</t>
+  </si>
+  <si>
+    <t>Probe 179: Untersuchung von Erfrischungsgetränken. Bestimmung des Getränks, welches ursprünglich eine medizinische Funktion hatte.</t>
+  </si>
+  <si>
+    <t>Tonic Water</t>
+  </si>
+  <si>
+    <t>Ginger Ale</t>
+  </si>
+  <si>
+    <t>Coca Cola</t>
+  </si>
+  <si>
+    <t>Almdudler</t>
+  </si>
+  <si>
+    <t>Probe 377: Biologische Prozesse in der Untersuchung. Auswahl der zur Translation nötigen Strukturen (Proteinbiosynthese).</t>
+  </si>
+  <si>
+    <t>t-RNA, m-RNA, Ribosom</t>
+  </si>
+  <si>
+    <t>t-RNA, m-RNA, Phosphor</t>
+  </si>
+  <si>
+    <t>t-RNA, Cytoplasma, Protein</t>
+  </si>
+  <si>
+    <t>m-RNA, Ribosom, Protein</t>
   </si>
 </sst>
 </file>
@@ -1258,50 +1330,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1769,7 +1841,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,120 +1850,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="34" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="G3" s="36" t="s">
+      <c r="D3" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="G3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="L3" s="36" t="s">
+      <c r="H3" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="K3" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="L3" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="M3" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -1900,28 +1972,30 @@
         <v>34</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E5" s="12">
         <v>1914</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
+      <c r="L5" s="20" t="s">
+        <v>290</v>
+      </c>
       <c r="M5" s="17" t="s">
         <v>76</v>
       </c>
@@ -1936,28 +2010,30 @@
         <v>35</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E6" s="8">
         <v>1939</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K6" s="13"/>
-      <c r="L6" s="21"/>
+      <c r="L6" s="21" t="s">
+        <v>289</v>
+      </c>
       <c r="M6" s="18" t="s">
         <v>74</v>
       </c>
@@ -1972,28 +2048,30 @@
         <v>36</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E7" s="8">
         <v>1789</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>46</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K7" s="21"/>
-      <c r="L7" s="13"/>
+      <c r="L7" s="13" t="s">
+        <v>291</v>
+      </c>
       <c r="M7" s="18" t="s">
         <v>75</v>
       </c>
@@ -2008,28 +2086,30 @@
         <v>37</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E8" s="10">
         <v>1871</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="L8" s="14" t="s">
+        <v>292</v>
+      </c>
       <c r="M8" s="19" t="s">
         <v>73</v>
       </c>
@@ -2040,58 +2120,58 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="G9" s="38" t="s">
+      <c r="D9" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="G9" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="K9" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="L9" s="38" t="s">
+      <c r="H9" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="J9" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="K9" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="M9" s="38" t="s">
+      <c r="L9" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="M9" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -2103,25 +2183,27 @@
         <v>2016</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>51</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="J11" s="20">
         <v>10</v>
       </c>
       <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="L11" s="12" t="s">
+        <v>294</v>
+      </c>
       <c r="M11" s="11">
         <v>1</v>
       </c>
@@ -2139,25 +2221,27 @@
         <v>2019</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J12" s="13">
         <v>9</v>
       </c>
       <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="L12" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="M12" s="8">
         <v>4</v>
       </c>
@@ -2175,25 +2259,27 @@
         <v>2017</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>50</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J13" s="21">
         <v>8</v>
       </c>
       <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>296</v>
+      </c>
       <c r="M13" s="8">
         <v>3</v>
       </c>
@@ -2211,25 +2297,27 @@
         <v>2020</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="J14" s="14">
         <v>7</v>
       </c>
       <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="L14" s="10" t="s">
+        <v>297</v>
+      </c>
       <c r="M14" s="16">
         <v>2</v>
       </c>
@@ -2240,58 +2328,58 @@
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="26"/>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="E15" s="38" t="s">
+      <c r="D15" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="J15" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="M15" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" s="41" t="s">
         <v>141</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="K15" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="L15" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M15" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="N15" s="38" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -2300,13 +2388,13 @@
         <v>15</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E17" s="12">
         <v>800</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>59</v>
@@ -2315,18 +2403,20 @@
         <v>2000</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K17" s="20"/>
-      <c r="L17" s="12"/>
+      <c r="L17" s="12" t="s">
+        <v>304</v>
+      </c>
       <c r="M17" s="11" t="s">
         <v>86</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2336,13 +2426,13 @@
         <v>22</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E18" s="8">
         <v>912</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>58</v>
@@ -2351,18 +2441,20 @@
         <v>2048</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K18" s="13"/>
-      <c r="L18" s="8"/>
+      <c r="L18" s="8" t="s">
+        <v>305</v>
+      </c>
       <c r="M18" s="9" t="s">
         <v>85</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2372,13 +2464,13 @@
         <v>25</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E19" s="8">
         <v>753</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>60</v>
@@ -2387,18 +2479,20 @@
         <v>2024</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K19" s="21"/>
-      <c r="L19" s="8"/>
+      <c r="L19" s="8" t="s">
+        <v>306</v>
+      </c>
       <c r="M19" s="8" t="s">
         <v>87</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2408,13 +2502,13 @@
         <v>18</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E20" s="23">
         <v>0</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>61</v>
@@ -2423,77 +2517,79 @@
         <v>1984</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K20" s="24"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23" t="s">
+        <v>307</v>
+      </c>
       <c r="M20" s="23" t="s">
         <v>88</v>
       </c>
       <c r="N20" s="28" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="41" t="s">
+      <c r="B21" s="40"/>
+      <c r="C21" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="G21" s="40" t="s">
+      <c r="D21" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="G21" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="J21" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="K21" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="L21" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="M21" s="40" t="s">
+      <c r="H21" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="K21" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="M21" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="N21" s="40" t="s">
-        <v>154</v>
+      <c r="N21" s="42" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -2505,32 +2601,34 @@
         <v>8</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>67</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="L23" s="20"/>
+        <v>115</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>298</v>
+      </c>
       <c r="M23" s="15" t="s">
         <v>95</v>
       </c>
       <c r="N23" s="20" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2543,32 +2641,34 @@
         <v>9</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>64</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="L24" s="13"/>
+        <v>117</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>300</v>
+      </c>
       <c r="M24" s="13" t="s">
         <v>96</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2581,32 +2681,34 @@
         <v>10</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>65</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="L25" s="21"/>
+        <v>116</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>299</v>
+      </c>
       <c r="M25" s="13" t="s">
         <v>97</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2619,89 +2721,91 @@
         <v>11</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>66</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="L26" s="14"/>
+        <v>114</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>301</v>
+      </c>
       <c r="M26" s="14" t="s">
         <v>98</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="G27" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H27" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="I27" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="J27" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="K27" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="L27" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="M27" s="38" t="s">
+      <c r="D27" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="I27" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="J27" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="K27" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="L27" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="M27" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="N27" s="38" t="s">
-        <v>155</v>
+      <c r="N27" s="41" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
@@ -2710,33 +2814,35 @@
         <v>4.5</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E29" s="11">
         <v>1933</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>55</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K29" s="20"/>
-      <c r="L29" s="11"/>
+      <c r="L29" s="11" t="s">
+        <v>310</v>
+      </c>
       <c r="M29" s="11" t="s">
         <v>82</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2746,33 +2852,35 @@
         <v>9</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E30" s="8">
         <v>1930</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>56</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K30" s="21"/>
-      <c r="L30" s="8"/>
+      <c r="L30" s="8" t="s">
+        <v>311</v>
+      </c>
       <c r="M30" s="8" t="s">
         <v>81</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2782,33 +2890,35 @@
         <v>3</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E31" s="8">
         <v>1936</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>57</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K31" s="13"/>
-      <c r="L31" s="8"/>
+      <c r="L31" s="8" t="s">
+        <v>312</v>
+      </c>
       <c r="M31" s="8" t="s">
         <v>83</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2818,90 +2928,92 @@
         <v>6.5</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E32" s="16">
         <v>1934</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>54</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K32" s="14"/>
-      <c r="L32" s="16"/>
+      <c r="L32" s="16" t="s">
+        <v>309</v>
+      </c>
       <c r="M32" s="16" t="s">
         <v>79</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="26"/>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="G33" s="38" t="s">
+      <c r="D33" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="G33" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="I33" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="J33" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="K33" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="L33" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="M33" s="38" t="s">
+      <c r="H33" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="I33" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="J33" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="K33" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="L33" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="M33" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="N33" s="38" t="s">
-        <v>162</v>
+      <c r="N33" s="41" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="26"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -2910,33 +3022,35 @@
         <v>28</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>70</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="K35" s="20"/>
-      <c r="L35" s="12"/>
+      <c r="L35" s="12" t="s">
+        <v>314</v>
+      </c>
       <c r="M35" s="11" t="s">
         <v>90</v>
       </c>
       <c r="N35" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -2946,33 +3060,35 @@
         <v>38</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>71</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K36" s="21"/>
-      <c r="L36" s="8"/>
+      <c r="L36" s="8" t="s">
+        <v>315</v>
+      </c>
       <c r="M36" s="8" t="s">
         <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2982,33 +3098,35 @@
         <v>32</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>72</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K37" s="13"/>
-      <c r="L37" s="8"/>
+      <c r="L37" s="8" t="s">
+        <v>316</v>
+      </c>
       <c r="M37" s="9" t="s">
         <v>89</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -3018,62 +3136,64 @@
         <v>36</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>69</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K38" s="14"/>
-      <c r="L38" s="10"/>
+      <c r="L38" s="10" t="s">
+        <v>317</v>
+      </c>
       <c r="M38" s="8" t="s">
         <v>93</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C41" s="7"/>
@@ -3133,89 +3253,6 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
     <mergeCell ref="A21:B22"/>
     <mergeCell ref="J39:J40"/>
     <mergeCell ref="K39:K40"/>
@@ -3232,6 +3269,89 @@
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="M27:M28"/>
     <mergeCell ref="I21:I22"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -972,13 +972,13 @@
     <t>t-RNA, m-RNA, Ribosom</t>
   </si>
   <si>
-    <t>t-RNA, m-RNA, Phosphor</t>
-  </si>
-  <si>
     <t>t-RNA, Cytoplasma, Protein</t>
   </si>
   <si>
     <t>m-RNA, Ribosom, Protein</t>
+  </si>
+  <si>
+    <t>t-RNA, m-RNA, Phosphorrest</t>
   </si>
 </sst>
 </file>
@@ -1330,6 +1330,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1344,36 +1374,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1841,7 +1841,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="J15" sqref="J15:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,120 +1850,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="N3" s="36" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -2120,58 +2120,58 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="J9" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="L9" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="M9" s="41" t="s">
+      <c r="M9" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="41" t="s">
+      <c r="N9" s="38" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -2328,58 +2328,58 @@
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="26"/>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="J15" s="41" t="s">
+      <c r="J15" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="K15" s="41" t="s">
+      <c r="K15" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="L15" s="41" t="s">
+      <c r="L15" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="M15" s="41" t="s">
+      <c r="M15" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="N15" s="41" t="s">
+      <c r="N15" s="38" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -2534,62 +2534,62 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="43" t="s">
+      <c r="B21" s="33"/>
+      <c r="C21" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="42" t="s">
+      <c r="H21" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="I21" s="42" t="s">
+      <c r="I21" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="J21" s="42" t="s">
+      <c r="J21" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="K21" s="42" t="s">
+      <c r="K21" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="L21" s="42" t="s">
+      <c r="L21" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="M21" s="42" t="s">
+      <c r="M21" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="N21" s="42" t="s">
+      <c r="N21" s="40" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -2754,58 +2754,58 @@
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="I27" s="41" t="s">
+      <c r="I27" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="J27" s="41" t="s">
+      <c r="J27" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="K27" s="41" t="s">
+      <c r="K27" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="L27" s="41" t="s">
+      <c r="L27" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="M27" s="41" t="s">
+      <c r="M27" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="N27" s="41" t="s">
+      <c r="N27" s="38" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
@@ -2962,58 +2962,58 @@
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="26"/>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="E33" s="41" t="s">
+      <c r="E33" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="41" t="s">
+      <c r="F33" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="G33" s="41" t="s">
+      <c r="G33" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="41" t="s">
+      <c r="H33" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="I33" s="41" t="s">
+      <c r="I33" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="J33" s="41" t="s">
+      <c r="J33" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="K33" s="41" t="s">
+      <c r="K33" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="L33" s="41" t="s">
+      <c r="L33" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="M33" s="41" t="s">
+      <c r="M33" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="N33" s="41" t="s">
+      <c r="N33" s="38" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="26"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="K36" s="21"/>
       <c r="L36" s="8" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>92</v>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="K37" s="13"/>
       <c r="L37" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>89</v>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="K38" s="14"/>
       <c r="L38" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>93</v>
@@ -3168,32 +3168,32 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C41" s="7"/>
@@ -3253,6 +3253,89 @@
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
     <mergeCell ref="A21:B22"/>
     <mergeCell ref="J39:J40"/>
     <mergeCell ref="K39:K40"/>
@@ -3269,89 +3352,6 @@
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="M27:M28"/>
     <mergeCell ref="I21:I22"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="330">
   <si>
     <t>Kategorien</t>
   </si>
@@ -354,21 +354,6 @@
     <t>Baseball</t>
   </si>
   <si>
-    <t>Probe 502:</t>
-  </si>
-  <si>
-    <t>Probe 376:</t>
-  </si>
-  <si>
-    <t>Probe 718:</t>
-  </si>
-  <si>
-    <t>Probe 095:</t>
-  </si>
-  <si>
-    <t>Probe 494:</t>
-  </si>
-  <si>
     <t>Johannes</t>
   </si>
   <si>
@@ -979,6 +964,57 @@
   </si>
   <si>
     <t>t-RNA, m-RNA, Phosphorrest</t>
+  </si>
+  <si>
+    <t>Probe 502: Religionen im Vergleich. Benennung des heiligen Buchs des Judentums.</t>
+  </si>
+  <si>
+    <t>Tora</t>
+  </si>
+  <si>
+    <t>Bibel</t>
+  </si>
+  <si>
+    <t>Koran</t>
+  </si>
+  <si>
+    <t>Pali-Kanon</t>
+  </si>
+  <si>
+    <t>Probe 376: Neues Testament gelesen. Nennung der Anzahl Jesu Jünger.</t>
+  </si>
+  <si>
+    <t>Probe 718: Weltreligionen werden eingeteilt. Anzahl der anerkannten Weltreligionen angeben.</t>
+  </si>
+  <si>
+    <t>Probe 095: Religiöse Festlichkeiten. Nennung der Persönlichkeit, die an Weihnachten und Ostern den Segen "Urbi et orbi" ereilt.</t>
+  </si>
+  <si>
+    <t>Papst</t>
+  </si>
+  <si>
+    <t>Bischöfe</t>
+  </si>
+  <si>
+    <t>Priester</t>
+  </si>
+  <si>
+    <t>Kardinäle</t>
+  </si>
+  <si>
+    <t>Probe 494: Glaubensbekenntnis. Wer sitzt im Apostolischen Glaubensbekenntnis rechts von Gott?</t>
+  </si>
+  <si>
+    <t>Jesus Christus</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Heiliger Geist</t>
+  </si>
+  <si>
+    <t>Josef</t>
   </si>
 </sst>
 </file>
@@ -1330,50 +1366,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1841,7 +1877,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:J16"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,120 +1886,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="34" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="G3" s="36" t="s">
+      <c r="F3" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="M3" s="36" t="s">
+      <c r="H3" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="M3" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -1972,29 +2008,31 @@
         <v>34</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E5" s="12">
         <v>1914</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="K5" s="20"/>
+        <v>258</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>315</v>
+      </c>
       <c r="L5" s="20" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M5" s="17" t="s">
         <v>76</v>
@@ -2010,29 +2048,31 @@
         <v>35</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E6" s="8">
         <v>1939</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="K6" s="13"/>
+        <v>259</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>316</v>
+      </c>
       <c r="L6" s="21" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M6" s="18" t="s">
         <v>74</v>
@@ -2048,29 +2088,31 @@
         <v>36</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E7" s="8">
         <v>1789</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>46</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="K7" s="21"/>
+        <v>260</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>314</v>
+      </c>
       <c r="L7" s="13" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M7" s="18" t="s">
         <v>75</v>
@@ -2086,29 +2128,31 @@
         <v>37</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E8" s="10">
         <v>1871</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="K8" s="14"/>
+        <v>261</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>317</v>
+      </c>
       <c r="L8" s="14" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M8" s="19" t="s">
         <v>73</v>
@@ -2120,58 +2164,58 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="G9" s="38" t="s">
+      <c r="D9" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="K9" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>293</v>
-      </c>
-      <c r="M9" s="38" t="s">
+      <c r="H9" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="J9" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="M9" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -2183,26 +2227,28 @@
         <v>2016</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>51</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J11" s="20">
         <v>10</v>
       </c>
-      <c r="K11" s="12"/>
+      <c r="K11" s="12">
+        <v>12</v>
+      </c>
       <c r="L11" s="12" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M11" s="11">
         <v>1</v>
@@ -2221,26 +2267,28 @@
         <v>2019</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="J12" s="13">
         <v>9</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="8">
+        <v>11</v>
+      </c>
       <c r="L12" s="8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M12" s="8">
         <v>4</v>
@@ -2259,26 +2307,28 @@
         <v>2017</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>50</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="J13" s="21">
         <v>8</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="8">
+        <v>10</v>
+      </c>
       <c r="L13" s="8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M13" s="8">
         <v>3</v>
@@ -2297,26 +2347,28 @@
         <v>2020</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="J14" s="14">
         <v>7</v>
       </c>
-      <c r="K14" s="10"/>
+      <c r="K14" s="10">
+        <v>13</v>
+      </c>
       <c r="L14" s="10" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M14" s="16">
         <v>2</v>
@@ -2328,58 +2380,58 @@
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="26"/>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="G15" s="38" t="s">
+      <c r="D15" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="G15" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="K15" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="L15" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="M15" s="38" t="s">
+      <c r="H15" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="J15" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="M15" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="N15" s="38" t="s">
-        <v>141</v>
+      <c r="N15" s="41" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -2388,13 +2440,13 @@
         <v>15</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E17" s="12">
         <v>800</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>59</v>
@@ -2403,20 +2455,22 @@
         <v>2000</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="K17" s="20"/>
+        <v>269</v>
+      </c>
+      <c r="K17" s="20">
+        <v>3</v>
+      </c>
       <c r="L17" s="12" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M17" s="11" t="s">
         <v>86</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2426,13 +2480,13 @@
         <v>22</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E18" s="8">
         <v>912</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>58</v>
@@ -2441,20 +2495,22 @@
         <v>2048</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="K18" s="13"/>
+        <v>271</v>
+      </c>
+      <c r="K18" s="13">
+        <v>4</v>
+      </c>
       <c r="L18" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>85</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2464,13 +2520,13 @@
         <v>25</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E19" s="8">
         <v>753</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>60</v>
@@ -2479,20 +2535,22 @@
         <v>2024</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="K19" s="21"/>
+        <v>272</v>
+      </c>
+      <c r="K19" s="21">
+        <v>5</v>
+      </c>
       <c r="L19" s="8" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>87</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2502,13 +2560,13 @@
         <v>18</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E20" s="23">
         <v>0</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>61</v>
@@ -2517,79 +2575,81 @@
         <v>1984</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="K20" s="24"/>
+        <v>270</v>
+      </c>
+      <c r="K20" s="24">
+        <v>2</v>
+      </c>
       <c r="L20" s="23" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M20" s="23" t="s">
         <v>88</v>
       </c>
       <c r="N20" s="28" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="41" t="s">
+      <c r="B21" s="40"/>
+      <c r="C21" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="G21" s="40" t="s">
+      <c r="D21" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="J21" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="K21" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="L21" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="M21" s="40" t="s">
+      <c r="H21" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="K21" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="M21" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="N21" s="40" t="s">
-        <v>148</v>
+      <c r="N21" s="42" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -2601,34 +2661,34 @@
         <v>8</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>67</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M23" s="15" t="s">
         <v>95</v>
       </c>
       <c r="N23" s="20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2641,34 +2701,34 @@
         <v>9</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>64</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>96</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2681,34 +2741,34 @@
         <v>10</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>65</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>97</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2721,91 +2781,91 @@
         <v>11</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>66</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>98</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="G27" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="H27" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="I27" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="J27" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="K27" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="L27" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="M27" s="38" t="s">
+      <c r="D27" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="I27" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="J27" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="K27" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="L27" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="M27" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="N27" s="38" t="s">
-        <v>149</v>
+      <c r="N27" s="41" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
@@ -2814,35 +2874,37 @@
         <v>4.5</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E29" s="11">
         <v>1933</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>55</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="K29" s="20"/>
+        <v>274</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>322</v>
+      </c>
       <c r="L29" s="11" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M29" s="11" t="s">
         <v>82</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2852,35 +2914,37 @@
         <v>9</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E30" s="8">
         <v>1930</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>56</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="K30" s="21"/>
+        <v>275</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>321</v>
+      </c>
       <c r="L30" s="8" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>81</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2890,35 +2954,37 @@
         <v>3</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E31" s="8">
         <v>1936</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>57</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="K31" s="13"/>
+        <v>276</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>323</v>
+      </c>
       <c r="L31" s="8" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>83</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2928,92 +2994,94 @@
         <v>6.5</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E32" s="16">
         <v>1934</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>54</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="K32" s="14"/>
+        <v>277</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>324</v>
+      </c>
       <c r="L32" s="16" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="M32" s="16" t="s">
         <v>79</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="26"/>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="G33" s="38" t="s">
+      <c r="D33" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="G33" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="I33" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="J33" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="K33" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="L33" s="38" t="s">
-        <v>313</v>
-      </c>
-      <c r="M33" s="38" t="s">
+      <c r="H33" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="I33" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="J33" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="K33" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="L33" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="M33" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="N33" s="38" t="s">
-        <v>156</v>
+      <c r="N33" s="41" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="26"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -3022,35 +3090,37 @@
         <v>28</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>70</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="K35" s="20"/>
+        <v>282</v>
+      </c>
+      <c r="K35" s="20" t="s">
+        <v>327</v>
+      </c>
       <c r="L35" s="12" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M35" s="11" t="s">
         <v>90</v>
       </c>
       <c r="N35" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -3060,35 +3130,37 @@
         <v>38</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>71</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="K36" s="21"/>
+        <v>281</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>326</v>
+      </c>
       <c r="L36" s="8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -3098,35 +3170,37 @@
         <v>32</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>72</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="K37" s="13"/>
+        <v>280</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>328</v>
+      </c>
       <c r="L37" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>89</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -3136,64 +3210,66 @@
         <v>36</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>69</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="K38" s="14"/>
+        <v>279</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>329</v>
+      </c>
       <c r="L38" s="10" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>93</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C41" s="7"/>
@@ -3253,89 +3329,6 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
     <mergeCell ref="A21:B22"/>
     <mergeCell ref="J39:J40"/>
     <mergeCell ref="K39:K40"/>
@@ -3352,6 +3345,89 @@
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="M27:M28"/>
     <mergeCell ref="I21:I22"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
